--- a/models/powerstation_coal/sysconfig_pscoal_600MW.xlsx
+++ b/models/powerstation_coal/sysconfig_pscoal_600MW.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="16840" tabRatio="804" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="16840" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="component_list" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -3003,7 +3006,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3866,8 +3869,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4522,7 +4525,7 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/models/powerstation_coal/sysconfig_pscoal_600MW.xlsx
+++ b/models/powerstation_coal/sysconfig_pscoal_600MW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="16840" tabRatio="804" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28700" windowHeight="16840" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="component_list" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="261">
   <si>
     <t>pwr_house</t>
   </si>
@@ -862,6 +862,9 @@
   </si>
   <si>
     <t>commodity_type</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1149,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="532">
+  <cellStyleXfs count="534">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1561,6 +1564,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2131,7 +2136,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="532">
+  <cellStyles count="534">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2397,6 +2402,7 @@
     <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="413" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -2663,6 +2669,7 @@
     <cellStyle name="Hyperlink" xfId="526" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="528" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="530" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="532" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3005,8 +3012,8 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3384,8 +3391,8 @@
       <c r="E18" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="F18" s="81" t="s">
-        <v>216</v>
+      <c r="F18" s="66" t="s">
+        <v>44</v>
       </c>
       <c r="G18" s="84">
         <v>1</v>
@@ -3638,7 +3645,7 @@
         <v>52</v>
       </c>
       <c r="F29" s="66" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
       <c r="G29" s="84">
         <v>1</v>
@@ -3869,7 +3876,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/models/powerstation_coal/sysconfig_pscoal_600MW.xlsx
+++ b/models/powerstation_coal/sysconfig_pscoal_600MW.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -3012,8 +3012,8 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
